--- a/pred_ohlcv/54_21/2020-01-19 FCT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 FCT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-171263.9187338848</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-170421.9187338848</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-176043.0547578011</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-176043.0547578011</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-281373.6618578011</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-281173.6618578011</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-281812.5883578011</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-341087.6912578011</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-341072.6912578011</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-341092.9054578011</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-341092.9054578011</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-245861.9054578011</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-245861.9054578011</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-240392.2290578011</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-245020.0821578011</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-244131.1932689122</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-253081.5193689122</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-420285.2690689122</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-404885.2690689122</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-409862.7962689122</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-405013.4713352541</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-405077.1077352541</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-835158.404935254</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-879312.022535254</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-932701.910235254</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-935203.5392352539</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-917867.7657352539</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-5913984.602735254</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-683082.2335352537</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-683082.2335352537</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-701507.5215352536</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-692582.6076352536</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-692582.6076352536</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-692848.8797352535</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-692488.5482352535</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-692488.5482352535</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-692488.5482352535</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-686488.5482352535</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-526959.5637024131</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-527009.5637024131</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-527009.5637024131</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-528805.9708024131</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-528805.9708024131</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-528805.9708024131</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-500191.2077024131</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-498191.2077024131</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-514337.9185024131</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-483304.5797879642</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-483304.5797879642</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-483304.5797879642</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-483304.5797879642</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-472447.4107024131</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-472447.4107024131</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-472447.4107024131</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-475447.4107024131</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-471156.8535024131</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-471156.8535024131</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-436166.5804024131</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-495166.5804024131</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-495166.5804024131</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-502503.2568024131</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-502487.2568024131</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-502487.2568024131</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-502487.2568024131</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-502487.2568024131</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-502487.2568024131</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-444704.0788024131</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-438025.0997024131</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-394785.7371024131</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-394785.7371024131</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-393708.2013024131</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-393708.2013024131</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-378460.6101797716</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-658251.4471613436</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-1032288.918261344</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-1032288.918261344</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-1026302.960177762</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-1032655.497077761</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-1029170.430677762</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-1043340.842178204</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-858846.9429902954</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-1000397.737890295</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-1000364.082990295</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-1000364.082990295</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-1026768.612890295</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-1026768.612890295</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-1026768.612890295</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-1025089.071290295</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-1022929.904690295</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-1097738.667190295</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-1169506.297290295</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-1194459.929664277</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-1194459.929664277</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>698475.6892926567</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>698475.6892926567</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>733460.6120926568</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>499282.0627926568</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>603003.1302926568</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>708420.9512926568</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>777349.1314926569</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>777349.1314926569</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>767091.1503926569</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>755456.5105926569</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>755456.5105926569</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>763560.0463926569</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>691430.1263926568</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>681064.5270926568</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>685821.3961926568</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>491195.4168926568</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>478174.6617926568</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>448884.7453926568</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>334423.2851926568</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>334623.2851926568</v>
       </c>
       <c r="H384">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-19 FCT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 FCT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-171263.9187338848</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-170421.9187338848</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-176043.0547578011</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-176043.0547578011</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-281373.6618578011</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-281173.6618578011</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-253081.5193689122</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-420285.2690689122</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-879312.022535254</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-932701.910235254</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-935203.5392352539</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-917867.7657352539</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-5913984.602735254</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-692582.6076352536</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-692488.5482352535</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-692488.5482352535</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-692488.5482352535</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-686488.5482352535</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-685664.1754352535</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-677332.4939024129</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-619436.0706024129</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-618364.889102413</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-619163.795402413</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-555467.8186323943</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-555467.8186323943</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-555467.8186323943</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-533627.1091024131</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-533627.1091024131</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-533627.1091024131</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-533627.1091024131</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-526959.5637024131</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-527009.5637024131</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-527009.5637024131</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-528805.9708024131</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-528805.9708024131</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-528805.9708024131</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-500191.2077024131</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-498191.2077024131</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-514337.9185024131</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-483304.5797879642</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-483304.5797879642</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-483304.5797879642</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-483304.5797879642</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-472447.4107024131</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-472447.4107024131</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-472447.4107024131</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-475447.4107024131</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-471156.8535024131</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-471156.8535024131</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-436166.5804024131</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-495166.5804024131</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-495166.5804024131</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-502503.2568024131</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-502487.2568024131</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-502487.2568024131</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-502487.2568024131</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-438025.0997024131</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-394785.7371024131</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-394785.7371024131</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-393708.2013024131</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-393708.2013024131</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-378460.6101797716</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-658251.4471613436</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-1032288.918261344</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-1032288.918261344</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-1033985.161761344</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-1026051.770977761</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-1026302.960177762</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-1032655.497077761</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-1029170.430677762</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-1029154.430677762</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-1049751.879677762</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-1049751.879677762</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-1049751.879677762</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-1044004.77844616</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-1097768.26984616</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-1115103.63517357</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-1124233.44647357</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-1119732.82767357</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-1043265.091678204</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-1043340.842178204</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-720527.6267379823</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-1097738.667190295</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-1169506.297290295</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-1194459.929664277</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-1194459.929664277</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-1198160.131364277</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-818160.1313642766</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>698475.6892926567</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>698475.6892926567</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>733460.6120926568</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>499282.0627926568</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>603003.1302926568</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>708420.9512926568</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>777349.1314926569</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>777349.1314926569</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>767091.1503926569</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>755456.5105926569</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>755456.5105926569</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>763560.0463926569</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>691430.1263926568</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>681064.5270926568</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>681064.5270926568</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>685821.3961926568</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>596771.7688926568</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>596771.7688926568</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>596771.7688926568</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>603566.0294926568</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>600543.1990926568</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>579328.9484926568</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>506132.2602926568</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>506132.2602926568</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>506132.2602926568</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>491453.9022926568</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>501931.7848926568</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>491195.4168926568</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>493863.5001926568</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>478874.6617926568</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>478174.6617926568</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>448884.7453926568</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>334423.2851926568</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
